--- a/example/template_inra_dev_test/histologyanalysis.xlsx
+++ b/example/template_inra_dev_test/histologyanalysis.xlsx
@@ -14,58 +14,58 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="22">
   <si>
-    <t>DATEEXP</t>
-  </si>
-  <si>
-    <t>OPERATOR</t>
-  </si>
-  <si>
-    <t>DEVICE</t>
-  </si>
-  <si>
-    <t>PRODCRIT</t>
-  </si>
-  <si>
-    <t>MOL</t>
-  </si>
-  <si>
-    <t>SAMPLEID</t>
-  </si>
-  <si>
-    <t>MICROSCOPETYPE</t>
-  </si>
-  <si>
-    <t>MICROSCOPEGROWTH</t>
-  </si>
-  <si>
-    <t>INCLUSIONTYPE</t>
-  </si>
-  <si>
-    <t>IMAGESCALE</t>
-  </si>
-  <si>
-    <t>SOFTWAREANALYSIS</t>
-  </si>
-  <si>
-    <t>CUTTINGDEVICE</t>
-  </si>
-  <si>
-    <t>COLORREFPRODCRIT</t>
-  </si>
-  <si>
-    <t>MEASURINGFIELD</t>
-  </si>
-  <si>
-    <t>PRIMARYKEY</t>
-  </si>
-  <si>
-    <t>FIXATIONTYPE</t>
-  </si>
-  <si>
-    <t>LAMENUM</t>
-  </si>
-  <si>
-    <t>CUTTINGTHICKNESS</t>
+    <t>dateexp</t>
+  </si>
+  <si>
+    <t>operator</t>
+  </si>
+  <si>
+    <t>device</t>
+  </si>
+  <si>
+    <t>prodcrit</t>
+  </si>
+  <si>
+    <t>mol</t>
+  </si>
+  <si>
+    <t>sampleid</t>
+  </si>
+  <si>
+    <t>microscopetype</t>
+  </si>
+  <si>
+    <t>microscopegrowth</t>
+  </si>
+  <si>
+    <t>inclusiontype</t>
+  </si>
+  <si>
+    <t>imagescale</t>
+  </si>
+  <si>
+    <t>softwareanalysis</t>
+  </si>
+  <si>
+    <t>cuttingdevice</t>
+  </si>
+  <si>
+    <t>colorrefprodcrit</t>
+  </si>
+  <si>
+    <t>measuringfield</t>
+  </si>
+  <si>
+    <t>primarykey</t>
+  </si>
+  <si>
+    <t>fixationtype</t>
+  </si>
+  <si>
+    <t>lamenum</t>
+  </si>
+  <si>
+    <t>cuttingthickness</t>
   </si>
   <si>
     <t>#date</t>
